--- a/TestCase/Http_TestCase.xlsx
+++ b/TestCase/Http_TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\opensource\099_AutoTest\bgAutoTestFramework\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA06DEE-2A03-4B80-96C4-8FBE8B8AC734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3FE482-40E3-417D-8F58-9D73A46DAFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="975" windowWidth="25485" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="420" windowWidth="25485" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,22 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用户登出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,7 +67,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"code": 200, "detail": "SUCCESS"}</t>
+    <t>返回数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0, "detail": "SUCCESS"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"weiyonggao", "password":"12345"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"admin", "password":"aaa"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 0, "result": "1.0.0.1"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,20 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="6" max="6" width="47.625" customWidth="1"/>
+    <col min="7" max="7" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,76 +503,119 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -551,8 +624,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -561,8 +635,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -571,8 +646,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -581,8 +657,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -591,8 +668,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -601,8 +679,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -611,8 +690,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -621,8 +701,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -631,8 +712,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -641,8 +723,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -651,8 +734,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -661,8 +745,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -671,8 +756,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -681,8 +767,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -691,8 +778,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -701,8 +789,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -711,8 +800,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -721,8 +811,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -731,8 +822,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -741,8 +833,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -751,8 +844,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -761,8 +855,9 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -771,8 +866,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -781,8 +877,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -791,8 +888,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -801,8 +899,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -811,8 +910,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -821,8 +921,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -831,8 +932,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -841,8 +943,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -851,9 +954,29 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37" xr:uid="{A9CD7F6A-E714-4AC0-BAE2-A5F10301CCDA}">
+      <formula1>"POST,GET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H37" xr:uid="{4F460396-2587-4E15-A9F3-209A2ACE439A}">
+      <formula1>"JSON,XML,TEXT"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
